--- a/P4.-Database Implementation/Requirement.xlsx
+++ b/P4.-Database Implementation/Requirement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\eclipseWorkspace\DAMG6210-Group4-Fianl-Project\P4.-Database Implementation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766C8B56-421D-413A-8847-C7D21E1CB39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE4EFA3-991D-490B-BF02-62A6281CC059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>1. at least 3 stored procedures containing input and output parameters</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>P4 - UDF - Calculate Current Employee Age.sql</t>
+  </si>
+  <si>
+    <t>P4 Column Data Encryption-Employee password.sql</t>
+  </si>
+  <si>
+    <t>P4 Column Data Encryption-Customer password.sql</t>
   </si>
 </sst>
 </file>
@@ -424,14 +430,14 @@
   <dimension ref="A2:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="51.453125" style="3" customWidth="1"/>
     <col min="2" max="2" width="25.36328125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.54296875" style="4" customWidth="1"/>
     <col min="4" max="4" width="24" style="4" customWidth="1"/>
     <col min="5" max="8" width="8.7265625" style="4"/>
     <col min="9" max="16384" width="8.7265625" style="3"/>
@@ -486,9 +492,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -516,8 +528,10 @@
     <hyperlink ref="B5" r:id="rId6" xr:uid="{D5023D77-0BAE-4511-9B66-1EADFC7FF5FC}"/>
     <hyperlink ref="C5" r:id="rId7" xr:uid="{1E68B43A-0C01-436F-9DF9-C8B3BF4566DF}"/>
     <hyperlink ref="B6" r:id="rId8" xr:uid="{2F817B8E-FA73-40FD-AC0A-7C58D4DD5455}"/>
+    <hyperlink ref="B7" r:id="rId9" xr:uid="{825535F4-9230-4229-8D37-C9C0EB05F556}"/>
+    <hyperlink ref="C7" r:id="rId10" xr:uid="{9A88704E-266C-4976-A612-9AFC873AEB92}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/P4.-Database Implementation/Requirement.xlsx
+++ b/P4.-Database Implementation/Requirement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\eclipseWorkspace\DAMG6210-Group4-Fianl-Project\P4.-Database Implementation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE4EFA3-991D-490B-BF02-62A6281CC059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0642E2-0A03-4BE3-B3A3-103858305756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>1. at least 3 stored procedures containing input and output parameters</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>P4 Column Data Encryption-Customer password.sql</t>
+  </si>
+  <si>
+    <t>P4 - Non-clustered indexes(include 5 indexes).sql</t>
   </si>
 </sst>
 </file>
@@ -430,13 +433,13 @@
   <dimension ref="A2:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="51.453125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="25.36328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="27.81640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="23.54296875" style="4" customWidth="1"/>
     <col min="4" max="4" width="24" style="4" customWidth="1"/>
     <col min="5" max="8" width="8.7265625" style="4"/>
@@ -503,9 +506,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -530,8 +536,9 @@
     <hyperlink ref="B6" r:id="rId8" xr:uid="{2F817B8E-FA73-40FD-AC0A-7C58D4DD5455}"/>
     <hyperlink ref="B7" r:id="rId9" xr:uid="{825535F4-9230-4229-8D37-C9C0EB05F556}"/>
     <hyperlink ref="C7" r:id="rId10" xr:uid="{9A88704E-266C-4976-A612-9AFC873AEB92}"/>
+    <hyperlink ref="B8" r:id="rId11" xr:uid="{D266D709-0921-4601-A407-C0BF4F957046}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>